--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -19,9 +19,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區光華段一小段20410000地號</t>
+  </si>
+  <si>
+    <t>10000分之107</t>
+  </si>
+  <si>
+    <t>邱志偉</t>
+  </si>
+  <si>
+    <t>94年07月27日</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>tmpba221</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,52 +114,28 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>高雄市前鎮區光華段一小段 2041-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 107</t>
-  </si>
-  <si>
-    <t>邱志偉</t>
-  </si>
-  <si>
-    <t>94年07月 27日</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區光華段一小段 07581-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區光華段一小段 07606-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區光華段一小段 07607-000 建號</t>
+    <t>高雄市前鎮區光華段一小段07581000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區光華段一小段07606000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區光華段一小段07607000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之 67</t>
-  </si>
-  <si>
-    <t>10000分之 120</t>
+    <t>10000分之67</t>
+  </si>
+  <si>
+    <t>10000分之120</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>(超過五年，共 用部分）</t>
-  </si>
-  <si>
-    <t>(超過五年’共 用部分）</t>
+    <t>(超過五年共用部分）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -99,19 +147,19 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>曰產 LIVINA L10GM</t>
-  </si>
-  <si>
-    <t>日產 ROGUE BASE</t>
+    <t>曰產LIVINAL10GM</t>
+  </si>
+  <si>
+    <t>日產ROGUEBASE</t>
   </si>
   <si>
     <t>安田陽子</t>
   </si>
   <si>
-    <t>99年08月 31日</t>
-  </si>
-  <si>
-    <t>101 年 02 月08曰</t>
+    <t>99年08月31日</t>
+  </si>
+  <si>
+    <t>101年02月08曰</t>
   </si>
   <si>
     <t>貝賈</t>
@@ -141,16 +189,16 @@
     <t>華南商業銀行淡水分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行高雄分 行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司麟 洛郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司西 甲郵局</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行前鎮分 行</t>
+    <t>中國信託商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司麟洛郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司西甲郵局</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行前鎮分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -183,22 +231,22 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及4</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及4</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總名</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>價</t>
@@ -228,13 +276,13 @@
     <t>台灣人壽</t>
   </si>
   <si>
-    <t>10年期人壽美利人生利率變 動型保險</t>
+    <t>10年期人壽美利人生利率變動型保險</t>
   </si>
   <si>
     <t>312還本終身保險</t>
   </si>
   <si>
-    <t>台灣人壽掌握人生變額萬能 壽險</t>
+    <t>台灣人壽掌握人生變額萬能壽險</t>
   </si>
   <si>
     <t>101年3月6日保單價值:0元</t>
@@ -596,13 +644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,31 +672,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1002</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -666,25 +756,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -692,25 +782,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>51.41</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -718,25 +808,25 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>1789.12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -744,25 +834,25 @@
         <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>789.52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -780,22 +870,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -803,19 +893,19 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>490000</v>
@@ -826,19 +916,19 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2488</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>990000</v>
@@ -859,19 +949,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -879,16 +969,16 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>2093374</v>
@@ -899,16 +989,16 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2">
         <v>391007</v>
@@ -919,16 +1009,16 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2">
         <v>241957</v>
@@ -939,16 +1029,16 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2">
         <v>5432</v>
@@ -959,16 +1049,16 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2">
         <v>9489</v>
@@ -979,16 +1069,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>18042</v>
@@ -999,16 +1089,16 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>200000</v>
@@ -1019,16 +1109,16 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2">
         <v>347</v>
@@ -1049,22 +1139,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1072,14 +1162,14 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1089,22 +1179,22 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1122,16 +1212,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1139,13 +1229,13 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1154,13 +1244,13 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1169,16 +1259,16 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -63,10 +63,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>高雄市前鎮區光華段一小段20410000地號</t>
-  </si>
-  <si>
-    <t>10000分之107</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區光華段一小段07581000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>邱志偉</t>
@@ -81,51 +87,12 @@
     <t>(超過五年）</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-03-06</t>
-  </si>
-  <si>
-    <t>tmpba221</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區光華段一小段07581000建號</t>
-  </si>
-  <si>
     <t>高雄市前鎮區光華段一小段07606000建號</t>
   </si>
   <si>
     <t>高雄市前鎮區光華段一小段07607000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>10000分之67</t>
   </si>
   <si>
@@ -138,145 +105,97 @@
     <t>(超過五年共用部分）</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>曰產LIVINAL10GM</t>
+  </si>
+  <si>
+    <t>安田陽子</t>
+  </si>
+  <si>
+    <t>99年08月31日</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>日產ROGUEBASE</t>
+  </si>
+  <si>
+    <t>101年02月08曰</t>
+  </si>
+  <si>
+    <t>彰化商業銀行古亭分行</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行淡水分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司麟洛郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司西甲郵局</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行前鎮分行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及4</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總名</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項</t>
+  </si>
+  <si>
+    <t>件</t>
+  </si>
+  <si>
+    <t>價</t>
+  </si>
+  <si>
+    <t>額</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>曰產LIVINAL10GM</t>
-  </si>
-  <si>
-    <t>日產ROGUEBASE</t>
-  </si>
-  <si>
-    <t>安田陽子</t>
-  </si>
-  <si>
-    <t>99年08月31日</t>
-  </si>
-  <si>
-    <t>101年02月08曰</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>彰化商業銀行古亭分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行淡水分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司麟洛郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司西甲郵局</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行前鎮分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及4</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>中華郵政</t>
   </si>
   <si>
+    <t>10年期人壽美利人生利率變動型保險</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>台灣人壽</t>
-  </si>
-  <si>
-    <t>10年期人壽美利人生利率變動型保險</t>
   </si>
   <si>
     <t>312還本終身保險</t>
@@ -644,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,52 +612,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1002</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1744</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -748,7 +626,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -756,103 +634,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>51.41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1789.12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>51.41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2">
-        <v>1789.12</v>
+        <v>789.52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2">
-        <v>789.52</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +714,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -870,67 +722,44 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1598</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="G1" s="1">
+        <v>490000</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>1598</v>
+        <v>2488</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2">
-        <v>490000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2488</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2">
         <v>990000</v>
       </c>
     </row>
@@ -941,7 +770,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -949,178 +778,158 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2093374</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>2093374</v>
+        <v>391007</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>391007</v>
+        <v>241957</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>241957</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>5432</v>
+        <v>9489</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>9489</v>
+        <v>18042</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>18042</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2">
         <v>347</v>
       </c>
     </row>
@@ -1131,7 +940,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1139,62 +948,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +990,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1212,63 +998,46 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
   <si>
     <t>name</t>
   </si>
@@ -69,28 +69,46 @@
     <t>total</t>
   </si>
   <si>
+    <t>高雄市前鎮區光華段一小段20410000地號</t>
+  </si>
+  <si>
+    <t>10000分之107</t>
+  </si>
+  <si>
+    <t>邱志偉</t>
+  </si>
+  <si>
+    <t>94年07月27日</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-06</t>
+  </si>
+  <si>
+    <t>tmpba221</t>
+  </si>
+  <si>
     <t>高雄市前鎮區光華段一小段07581000建號</t>
   </si>
   <si>
+    <t>高雄市前鎮區光華段一小段07606000建號</t>
+  </si>
+  <si>
+    <t>高雄市前鎮區光華段一小段07607000建號</t>
+  </si>
+  <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>邱志偉</t>
-  </si>
-  <si>
-    <t>94年07月27日</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區光華段一小段07606000建號</t>
-  </si>
-  <si>
-    <t>高雄市前鎮區光華段一小段07607000建號</t>
   </si>
   <si>
     <t>10000分之67</t>
@@ -563,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,6 +635,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1002</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0107</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>10.7214</v>
       </c>
     </row>
   </sheetData>
@@ -626,47 +697,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>51.41</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1789.12</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -675,24 +773,51 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>51.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C3" s="2">
-        <v>789.52</v>
+        <v>1789.12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -701,10 +826,90 @@
         <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1744</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0067</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>11.987104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>789.52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1744</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="2">
+        <v>21</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.012</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>9.47424</v>
       </c>
     </row>
   </sheetData>
@@ -714,7 +919,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -722,19 +927,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1">
         <v>1598</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1">
         <v>490000</v>
@@ -742,24 +947,47 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1598</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>32</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2488</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2">
-        <v>2488</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="G3" s="2">
         <v>990000</v>
       </c>
     </row>
@@ -770,7 +998,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,13 +1006,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -795,141 +1023,161 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2">
-        <v>391007</v>
+        <v>2093374</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>241957</v>
+        <v>391007</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2">
-        <v>5432</v>
+        <v>241957</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2">
-        <v>9489</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2">
-        <v>18042</v>
+        <v>9489</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>200000</v>
+        <v>18042</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
         <v>347</v>
       </c>
     </row>
@@ -940,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -948,39 +1196,56 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -990,7 +1255,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -998,10 +1263,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1010,13 +1275,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1025,19 +1290,34 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>85</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>61</v>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -123,22 +123,25 @@
     <t>(超過五年共用部分）</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>曰產LIVINAL10GM</t>
   </si>
   <si>
+    <t>日產ROGUEBASE</t>
+  </si>
+  <si>
     <t>安田陽子</t>
   </si>
   <si>
     <t>99年08月31日</t>
   </si>
   <si>
+    <t>101年02月08曰</t>
+  </si>
+  <si>
     <t>貝賈</t>
-  </si>
-  <si>
-    <t>日產ROGUEBASE</t>
-  </si>
-  <si>
-    <t>101年02月08曰</t>
   </si>
   <si>
     <t>彰化商業銀行古亭分行</t>
@@ -919,67 +922,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1">
-        <v>1598</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1">
-        <v>490000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>490000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>2488</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>39</v>
@@ -989,6 +1034,27 @@
       </c>
       <c r="G3" s="2">
         <v>990000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1744</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1006,13 +1072,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1026,13 +1092,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1046,13 +1112,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1066,13 +1132,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1086,13 +1152,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1106,13 +1172,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1126,13 +1192,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1146,13 +1212,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1166,13 +1232,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1196,14 +1262,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1213,16 +1279,16 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1230,22 +1296,22 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1263,10 +1329,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1278,10 +1344,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1293,10 +1359,10 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1308,16 +1374,16 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
   <si>
     <t>name</t>
   </si>
@@ -123,6 +123,9 @@
     <t>(超過五年共用部分）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
   </si>
   <si>
     <t>貝賈</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>彰化商業銀行古亭分行</t>
@@ -782,7 +788,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -835,7 +841,7 @@
         <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -888,7 +894,7 @@
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>23</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -974,25 +980,25 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>1598</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2">
         <v>490000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1018,16 +1024,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>2488</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>32</v>
@@ -1036,7 +1042,7 @@
         <v>990000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1072,13 +1078,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -1092,13 +1098,13 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1112,13 +1118,13 @@
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1132,13 +1138,13 @@
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1152,13 +1158,13 @@
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1172,13 +1178,13 @@
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1192,13 +1198,13 @@
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1212,13 +1218,13 @@
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1232,13 +1238,13 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1262,14 +1268,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1279,16 +1285,16 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1296,22 +1302,22 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1329,10 +1335,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1344,10 +1350,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1359,10 +1365,10 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1374,16 +1380,16 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -150,40 +150,52 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>彰化商業銀行古亭分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>高雄銀行市府分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行淡水分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行高雄分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司麟洛郵局</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司西甲郵局</t>
+  </si>
+  <si>
+    <t>臺灣中小企業銀行前鎮分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>高雄銀行市府分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行淡水分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行高雄分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司麟洛郵局</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司西甲郵局</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行前鎮分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及4</t>
@@ -1070,13 +1082,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1087,24 +1099,45 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2093374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -1112,19 +1145,40 @@
       <c r="F2" s="2">
         <v>2093374</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -1132,19 +1186,40 @@
       <c r="F3" s="2">
         <v>391007</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1744</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -1152,19 +1227,40 @@
       <c r="F4" s="2">
         <v>241957</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1744</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1172,19 +1268,40 @@
       <c r="F5" s="2">
         <v>5432</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1744</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1192,19 +1309,40 @@
       <c r="F6" s="2">
         <v>9489</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1744</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1212,19 +1350,40 @@
       <c r="F7" s="2">
         <v>18042</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1744</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1232,25 +1391,67 @@
       <c r="F8" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1744</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2">
         <v>347</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1744</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1268,14 +1469,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1285,16 +1486,16 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1302,22 +1503,22 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1335,10 +1536,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1350,10 +1551,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1365,10 +1566,10 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1380,16 +1581,16 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -11,15 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -196,33 +195,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及4</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總名</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>中華郵政</t>
@@ -1461,73 +1433,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>76</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1536,10 +1441,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1551,10 +1456,10 @@
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1566,10 +1471,10 @@
         <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1581,16 +1486,16 @@
         <v>85</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="67">
   <si>
     <t>name</t>
   </si>
@@ -197,25 +197,28 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>中華郵政</t>
   </si>
   <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>台灣人壽</t>
+  </si>
+  <si>
     <t>10年期人壽美利人生利率變動型保險</t>
   </si>
   <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>台灣人壽</t>
-  </si>
-  <si>
     <t>312還本終身保險</t>
   </si>
   <si>
     <t>台灣人壽掌握人生變額萬能壽險</t>
   </si>
   <si>
-    <t>101年3月6日保單價值:0元</t>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1433,40 +1436,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>84</v>
       </c>
@@ -1474,14 +1517,34 @@
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1744</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>85</v>
       </c>
@@ -1489,13 +1552,31 @@
         <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1744</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
+++ b/legislator/property/output/normal/邱志偉_2012-03-06_財產申報表_tmpba221.xlsx
@@ -12,13 +12,14 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -219,6 +220,21 @@
   </si>
   <si>
     <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>購置房屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1582,4 +1598,102 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1747472</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1744</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>